--- a/PCB/CommonPCB_v1.2M/PCB_BOM.xlsx
+++ b/PCB/CommonPCB_v1.2M/PCB_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>Designator</t>
   </si>
@@ -105,9 +105,6 @@
     <t>SOT23-5</t>
   </si>
   <si>
-    <t>TPS76333</t>
-  </si>
-  <si>
     <t>DA100</t>
   </si>
   <si>
@@ -132,12 +129,6 @@
     <t>L100</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>INDC3216</t>
-  </si>
-  <si>
     <t>LED1</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>Chip resistor</t>
   </si>
   <si>
-    <t>RESC1608X55N</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>R101</t>
   </si>
   <si>
-    <t>Potentiometer</t>
-  </si>
-  <si>
     <t>VR5</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
     <t>X1</t>
   </si>
   <si>
-    <t>Quartz_SX-6 (SMD06035C4)</t>
-  </si>
-  <si>
     <t>SX-6 QUARTZ</t>
   </si>
   <si>
@@ -247,13 +229,49 @@
   </si>
   <si>
     <t>240 Ohm (Adj)</t>
+  </si>
+  <si>
+    <t>TPS76333DBVR</t>
+  </si>
+  <si>
+    <t>Potentiometer (Trimpot) 3296w PACKAGE</t>
+  </si>
+  <si>
+    <t>RESC1608X55N [0603]</t>
+  </si>
+  <si>
+    <t>LED RED</t>
+  </si>
+  <si>
+    <t>Quartz_SX-6 (SMD06035C4) 6x3.5mm package</t>
+  </si>
+  <si>
+    <t>ABM7-8.000MHZ-D2Y-T</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>3296W-1-103</t>
+  </si>
+  <si>
+    <t>TPS62200DBVR is suitable</t>
+  </si>
+  <si>
+    <t>Inductor (Wire-wound)</t>
+  </si>
+  <si>
+    <t>INDC3216 [1206]</t>
+  </si>
+  <si>
+    <t>LQH31CN100K03L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +290,26 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -294,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -345,12 +383,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -384,6 +433,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -687,21 +749,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -714,8 +777,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -729,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -743,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -757,7 +823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -771,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -785,7 +851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -799,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -813,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -827,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -841,12 +907,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>28</v>
@@ -855,164 +921,167 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="B13" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" s="8" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
@@ -1054,78 +1123,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/PCB/CommonPCB_v1.2M/PCB_BOM.xlsx
+++ b/PCB/CommonPCB_v1.2M/PCB_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t>Designator</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>LQH31CN100K03L</t>
+  </si>
+  <si>
+    <t>1K</t>
   </si>
 </sst>
 </file>
@@ -751,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1179,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>73</v>
